--- a/analysis/5.1/td_0.20s.xlsx
+++ b/analysis/5.1/td_0.20s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
@@ -102,18 +102,18 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.20000000000000001</v>
       </c>
       <c r="D2">
-        <v>320.77476000000144</v>
+        <v>451.83704000000375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
@@ -122,7 +122,7 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="D3">
-        <v>286.88724000000002</v>
+        <v>320.77476000000144</v>
       </c>
     </row>
     <row r="4">
@@ -130,41 +130,41 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.20000000000000001</v>
       </c>
       <c r="D4">
-        <v>302.81849999999974</v>
+        <v>388.41548000000336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B5">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5">
         <v>0.20000000000000001</v>
       </c>
       <c r="D5">
-        <v>262.86003999999946</v>
+        <v>286.88724000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C6">
         <v>0.20000000000000001</v>
       </c>
       <c r="D6">
-        <v>255.83188571428576</v>
+        <v>302.81849999999974</v>
       </c>
     </row>
     <row r="7">
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.20000000000000001</v>
       </c>
       <c r="D7">
-        <v>244.65276000000301</v>
+        <v>262.86003999999946</v>
       </c>
     </row>
     <row r="8">
@@ -186,41 +186,41 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.20000000000000001</v>
       </c>
       <c r="D8">
-        <v>278.69364000000189</v>
+        <v>255.83188571428576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.20000000000000001</v>
       </c>
       <c r="D9">
-        <v>258.54019999999201</v>
+        <v>244.65276000000301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.20000000000000001</v>
       </c>
       <c r="D10">
-        <v>250.12960000000015</v>
+        <v>278.69364000000189</v>
       </c>
     </row>
     <row r="11">
@@ -228,13 +228,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B11">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C11">
         <v>0.20000000000000001</v>
       </c>
       <c r="D11">
-        <v>250.12947999999912</v>
+        <v>258.54019999999201</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C12">
         <v>0.20000000000000001</v>
       </c>
       <c r="D12">
-        <v>277.25231999999914</v>
+        <v>250.12960000000015</v>
       </c>
     </row>
     <row r="13">
@@ -256,41 +256,41 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.20000000000000001</v>
       </c>
       <c r="D13">
-        <v>277.08920000000256</v>
+        <v>250.12947999999912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.20000000000000001</v>
       </c>
       <c r="D14">
-        <v>244.91495999999867</v>
+        <v>277.25231999999914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
         <v>0.20000000000000001</v>
       </c>
       <c r="D15">
-        <v>197.29035999999962</v>
+        <v>277.08920000000256</v>
       </c>
     </row>
     <row r="16">
@@ -298,13 +298,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B16">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C16">
         <v>0.20000000000000001</v>
       </c>
       <c r="D16">
-        <v>277.87124000000301</v>
+        <v>244.91495999999867</v>
       </c>
     </row>
     <row r="17">
@@ -312,13 +312,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C17">
         <v>0.20000000000000001</v>
       </c>
       <c r="D17">
-        <v>204.1173142857144</v>
+        <v>197.29035999999962</v>
       </c>
     </row>
     <row r="18">
@@ -326,41 +326,41 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.20000000000000001</v>
       </c>
       <c r="D18">
-        <v>283.68299999999999</v>
+        <v>277.87124000000301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.20000000000000001</v>
       </c>
       <c r="D19">
-        <v>229.86080000000067</v>
+        <v>204.1173142857144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C20">
         <v>0.20000000000000001</v>
       </c>
       <c r="D20">
-        <v>214.65631999999712</v>
+        <v>283.68299999999999</v>
       </c>
     </row>
     <row r="21">
@@ -368,13 +368,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B21">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C21">
         <v>0.20000000000000001</v>
       </c>
       <c r="D21">
-        <v>228.76925714285528</v>
+        <v>229.86080000000067</v>
       </c>
     </row>
     <row r="22">
@@ -382,13 +382,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B22">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22">
         <v>0.20000000000000001</v>
       </c>
       <c r="D22">
-        <v>228.860514285715</v>
+        <v>214.65631999999712</v>
       </c>
     </row>
     <row r="23">
@@ -396,41 +396,41 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C23">
         <v>0.20000000000000001</v>
       </c>
       <c r="D23">
-        <v>246.50884000000252</v>
+        <v>228.76925714285528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.20000000000000001</v>
       </c>
       <c r="D24">
-        <v>213.67839999999939</v>
+        <v>228.860514285715</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C25">
         <v>0.20000000000000001</v>
       </c>
       <c r="D25">
-        <v>212.65416000000079</v>
+        <v>246.50884000000252</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B26">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C26">
         <v>0.20000000000000001</v>
       </c>
       <c r="D26">
-        <v>201.50866666666914</v>
+        <v>213.67839999999939</v>
       </c>
     </row>
     <row r="27">
@@ -452,41 +452,41 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B27">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.20000000000000001</v>
       </c>
       <c r="D27">
-        <v>244.84788000000293</v>
+        <v>212.65416000000079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B28">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C28">
         <v>0.20000000000000001</v>
       </c>
       <c r="D28">
-        <v>227.89799999999872</v>
+        <v>201.50866666666914</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C29">
         <v>0.20000000000000001</v>
       </c>
       <c r="D29">
-        <v>210.83211428571423</v>
+        <v>244.84788000000293</v>
       </c>
     </row>
     <row r="30">
@@ -494,13 +494,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B30">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C30">
         <v>0.20000000000000001</v>
       </c>
       <c r="D30">
-        <v>198.83574999999931</v>
+        <v>227.89799999999872</v>
       </c>
     </row>
     <row r="31">
@@ -508,41 +508,41 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B31">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C31">
         <v>0.20000000000000001</v>
       </c>
       <c r="D31">
-        <v>227.62331428571525</v>
+        <v>210.83211428571423</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B32">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0.20000000000000001</v>
       </c>
       <c r="D32">
-        <v>199.7964857142864</v>
+        <v>198.83574999999931</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B33">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C33">
         <v>0.20000000000000001</v>
       </c>
       <c r="D33">
-        <v>198.70420000000013</v>
+        <v>227.62331428571525</v>
       </c>
     </row>
     <row r="34">
@@ -550,26 +550,54 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B34">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C34">
         <v>0.20000000000000001</v>
       </c>
       <c r="D34">
-        <v>217.52553333333321</v>
+        <v>199.7964857142864</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>90.099999999999994</v>
+      </c>
+      <c r="B35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D35">
+        <v>198.70420000000013</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>90.099999999999994</v>
+      </c>
+      <c r="B36">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D36">
+        <v>217.52553333333321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
         <v>100.09999999999999</v>
       </c>
-      <c r="B35">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C35">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D35">
+      <c r="B37">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D37">
         <v>198.8190133333334</v>
       </c>
     </row>
